--- a/docs/StructureDefinition-VA.MHV.PHR.cbcSpecimen.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.cbcSpecimen.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$50</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="357">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7-beta</t>
+    <t>0.1.8-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:45:33-05:00</t>
+    <t>2023-04-12T10:49:54-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -569,7 +569,117 @@
     <t>SPM-4 and possibly SPM-5</t>
   </si>
   <si>
-    <t>Specimen.type.id</t>
+    <t>labTestPromises.specimen.specimenSource</t>
+  </si>
+  <si>
+    <t>Specimen.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Group|Device|Substance|Location)
+</t>
+  </si>
+  <si>
+    <t>Where the specimen came from. This may be from patient(s), from a location (e.g., the source of an environmental sample), or a sampling of a substance or a device</t>
+  </si>
+  <si>
+    <t>Where the specimen came from. This may be from patient(s), from a location (e.g., the source of an environmental sample), or a sampling of a substance or a device.</t>
+  </si>
+  <si>
+    <t>Must know the subject context.</t>
+  </si>
+  <si>
+    <t>.scoper  or  .scoper.playsRole</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Specimen.receivedTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>The time when specimen was received for processing</t>
+  </si>
+  <si>
+    <t>Time when specimen was received for processing or testing.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].act[code=SPCREC, moodCode=EVN].effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>SPM-18</t>
+  </si>
+  <si>
+    <t>Specimen.parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Specimen)
+</t>
+  </si>
+  <si>
+    <t>Specimen from which this specimen originated</t>
+  </si>
+  <si>
+    <t>Reference to the parent (source) specimen which is used when the specimen was either derived from or a component of another specimen.</t>
+  </si>
+  <si>
+    <t>The parent specimen could be the source from which the current specimen is derived by some processing step (e.g. an aliquot or isolate or extracted nucleic acids from clinical samples) or one of many specimens that were combined to create a pooled sample.</t>
+  </si>
+  <si>
+    <t>.scoper (if parent) .player.scopesRole[classCode=SPEC].player (if child)</t>
+  </si>
+  <si>
+    <t>Specimen.request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>Why the specimen was collected</t>
+  </si>
+  <si>
+    <t>Details concerning a service request that required a specimen to be collected.</t>
+  </si>
+  <si>
+    <t>The request may be explicit or implied such with a ServiceRequest that requires a blood draw.</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>ORC? OBR-2/3?</t>
+  </si>
+  <si>
+    <t>Specimen.collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Collection details</t>
+  </si>
+  <si>
+    <t>Details concerning the specimen collection.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].act[classCode=SPECCOLLECT, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>SPM-14</t>
+  </si>
+  <si>
+    <t>Specimen.collection.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -588,191 +698,13 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Specimen.type.extension</t>
+    <t>Specimen.collection.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Specimen.type.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>Specimen.type.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>labTestPromises.specimen.specimenSource</t>
-  </si>
-  <si>
-    <t>Specimen.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Substance|Location)
-</t>
-  </si>
-  <si>
-    <t>Where the specimen came from. This may be from patient(s), from a location (e.g., the source of an environmental sample), or a sampling of a substance or a device</t>
-  </si>
-  <si>
-    <t>Where the specimen came from. This may be from patient(s), from a location (e.g., the source of an environmental sample), or a sampling of a substance or a device.</t>
-  </si>
-  <si>
-    <t>Must know the subject context.</t>
-  </si>
-  <si>
-    <t>.scoper  or  .scoper.playsRole</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Specimen.receivedTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>The time when specimen was received for processing</t>
-  </si>
-  <si>
-    <t>Time when specimen was received for processing or testing.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].act[code=SPCREC, moodCode=EVN].effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>SPM-18</t>
-  </si>
-  <si>
-    <t>Specimen.parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Specimen)
-</t>
-  </si>
-  <si>
-    <t>Specimen from which this specimen originated</t>
-  </si>
-  <si>
-    <t>Reference to the parent (source) specimen which is used when the specimen was either derived from or a component of another specimen.</t>
-  </si>
-  <si>
-    <t>The parent specimen could be the source from which the current specimen is derived by some processing step (e.g. an aliquot or isolate or extracted nucleic acids from clinical samples) or one of many specimens that were combined to create a pooled sample.</t>
-  </si>
-  <si>
-    <t>.scoper (if parent) .player.scopesRole[classCode=SPEC].player (if child)</t>
-  </si>
-  <si>
-    <t>Specimen.request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>Why the specimen was collected</t>
-  </si>
-  <si>
-    <t>Details concerning a service request that required a specimen to be collected.</t>
-  </si>
-  <si>
-    <t>The request may be explicit or implied such with a ServiceRequest that requires a blood draw.</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>ORC? OBR-2/3?</t>
-  </si>
-  <si>
-    <t>Specimen.collection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Collection details</t>
-  </si>
-  <si>
-    <t>Details concerning the specimen collection.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].act[classCode=SPECCOLLECT, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>SPM-14</t>
-  </si>
-  <si>
-    <t>Specimen.collection.id</t>
-  </si>
-  <si>
-    <t>Specimen.collection.extension</t>
   </si>
   <si>
     <t>Specimen.collection.modifierExtension</t>
@@ -829,6 +761,9 @@
   <si>
     <t xml:space="preserve">type:$this}
 </t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>.effectiveTime</t>
@@ -1516,7 +1451,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN54"/>
+  <dimension ref="A1:AN50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1553,7 +1488,7 @@
     <col min="26" max="26" width="55.66015625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="35.78515625" customWidth="true" bestFit="true" hidden="true"/>
@@ -3161,15 +3096,15 @@
         <v>176</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3180,7 +3115,7 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -3189,19 +3124,21 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3249,7 +3186,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3261,13 +3198,13 @@
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3278,21 +3215,21 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
@@ -3301,20 +3238,18 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3351,40 +3286,40 @@
         <v>77</v>
       </c>
       <c r="AB16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AC16" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3392,10 +3327,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3406,7 +3341,7 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3415,23 +3350,21 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3479,7 +3412,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3494,13 +3427,13 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3522,7 +3455,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3531,23 +3464,21 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O18" t="s" s="2">
         <v>202</v>
       </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3595,13 +3526,13 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
@@ -3610,24 +3541,24 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>205</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3638,30 +3569,28 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>211</v>
-      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3709,7 +3638,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3724,13 +3653,13 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3738,10 +3667,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3752,7 +3681,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -3761,16 +3690,16 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3821,7 +3750,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3833,16 +3762,16 @@
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3850,21 +3779,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -3876,16 +3805,16 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3935,7 +3864,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3947,10 +3876,10 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -3964,44 +3893,46 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>228</v>
+        <v>132</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4049,7 +3980,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4061,16 +3992,16 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>232</v>
+        <v>129</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4078,10 +4009,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4092,25 +4023,25 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="I23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K23" t="s" s="2">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4161,7 +4092,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4176,13 +4107,13 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4190,10 +4121,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4213,16 +4144,16 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4261,19 +4192,17 @@
         <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4285,16 +4214,16 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4305,40 +4234,40 @@
         <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="D25" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>133</v>
+        <v>235</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4387,75 +4316,71 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>77</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>132</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4503,25 +4428,25 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4532,10 +4457,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4555,16 +4480,16 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4615,7 +4540,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4630,10 +4555,10 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>254</v>
@@ -4658,7 +4583,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4667,16 +4592,16 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4703,26 +4628,28 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AC28" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>255</v>
@@ -4743,10 +4670,10 @@
         <v>260</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4754,14 +4681,12 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4770,27 +4695,29 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4815,13 +4742,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4839,7 +4766,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4854,24 +4781,24 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4894,16 +4821,20 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -4927,13 +4858,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -4951,7 +4882,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4969,10 +4900,10 @@
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -4980,10 +4911,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5006,13 +4937,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>271</v>
+        <v>207</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5063,13 +4994,13 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
@@ -5078,13 +5009,13 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5092,10 +5023,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5106,7 +5037,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5118,13 +5049,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
+        <v>214</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>278</v>
+        <v>215</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5151,13 +5082,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5175,7 +5106,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5187,16 +5118,16 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>281</v>
+        <v>217</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>282</v>
+        <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5204,21 +5135,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5230,16 +5161,16 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>284</v>
+        <v>133</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>285</v>
+        <v>219</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>286</v>
+        <v>135</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5265,13 +5196,13 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -5289,28 +5220,28 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>283</v>
+        <v>220</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>289</v>
+        <v>217</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5318,45 +5249,45 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>292</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>293</v>
+        <v>223</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>294</v>
+        <v>224</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>295</v>
+        <v>135</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>296</v>
+        <v>141</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5381,13 +5312,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5405,28 +5336,28 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>291</v>
+        <v>225</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5434,10 +5365,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5448,7 +5379,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5460,13 +5391,13 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5517,13 +5448,13 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
@@ -5532,7 +5463,7 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
@@ -5546,10 +5477,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5572,13 +5503,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>179</v>
+        <v>292</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>180</v>
+        <v>293</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5605,13 +5536,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -5629,7 +5560,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>181</v>
+        <v>291</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5641,10 +5572,10 @@
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -5658,14 +5589,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5684,17 +5615,15 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>132</v>
+        <v>297</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>133</v>
+        <v>298</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5743,7 +5672,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>188</v>
+        <v>296</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5755,16 +5684,16 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>182</v>
+        <v>300</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -5772,46 +5701,42 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>245</v>
+        <v>303</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -5859,22 +5784,22 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>247</v>
+        <v>302</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -5888,10 +5813,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5902,7 +5827,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -5914,13 +5839,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5971,13 +5896,13 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
@@ -5986,7 +5911,7 @@
         <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6000,10 +5925,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6026,13 +5951,13 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>313</v>
+        <v>214</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6059,13 +5984,13 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -6083,7 +6008,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>312</v>
+        <v>216</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6095,10 +6020,10 @@
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6112,14 +6037,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6138,15 +6063,17 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>318</v>
+        <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>319</v>
+        <v>133</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6195,7 +6122,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>317</v>
+        <v>220</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6207,16 +6134,16 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>321</v>
+        <v>217</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6224,42 +6151,46 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>256</v>
+        <v>132</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6307,22 +6238,22 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>323</v>
+        <v>225</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6336,10 +6267,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6350,7 +6281,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6359,16 +6290,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>236</v>
+        <v>144</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6419,7 +6350,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6434,13 +6365,13 @@
         <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>329</v>
+        <v>147</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6448,10 +6379,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6474,13 +6405,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>179</v>
+        <v>317</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>180</v>
+        <v>318</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6531,7 +6462,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>181</v>
+        <v>316</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6543,10 +6474,10 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>182</v>
+        <v>319</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6560,21 +6491,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6586,17 +6517,15 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>133</v>
+        <v>321</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6621,13 +6550,13 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
@@ -6645,28 +6574,28 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>188</v>
+        <v>320</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -6674,46 +6603,42 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>132</v>
+        <v>250</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>245</v>
+        <v>327</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
@@ -6761,28 +6686,28 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>247</v>
+        <v>326</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>129</v>
+        <v>329</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -6790,10 +6715,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6804,7 +6729,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -6813,16 +6738,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>144</v>
+        <v>250</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6873,13 +6798,13 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
@@ -6888,13 +6813,13 @@
         <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>147</v>
+        <v>334</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -6902,10 +6827,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6928,7 +6853,7 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>178</v>
+        <v>337</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>338</v>
@@ -6961,13 +6886,13 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>340</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>77</v>
@@ -6985,7 +6910,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7000,13 +6925,13 @@
         <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>77</v>
+        <v>343</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7014,10 +6939,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7028,7 +6953,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7037,19 +6962,23 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>167</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7073,37 +7002,37 @@
         <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF49" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
@@ -7112,13 +7041,13 @@
         <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7126,10 +7055,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7140,7 +7069,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7152,13 +7081,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>271</v>
+        <v>353</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>348</v>
+        <v>50</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7209,13 +7138,13 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
@@ -7224,472 +7153,20 @@
         <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="P53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AN54" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN54">
+  <autoFilter ref="A1:AN50">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7699,7 +7176,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI53">
+  <conditionalFormatting sqref="A2:AI49">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
